--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="991" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" state="visible" r:id="rId2"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
   <si>
     <t>Categorie</t>
   </si>
@@ -40,34 +40,136 @@
     <t>Référence</t>
   </si>
   <si>
-    <t>(SEO ou accessiblité ?)</t>
+    <t>ACCESSIBILITÉ</t>
+  </si>
+  <si>
+    <t> Arborescence des balises H (multi ligne)</t>
+  </si>
+  <si>
+    <t> Les balises de titre sont imbriqué ou placé selon des règles strictes h1 en premier puis h2 puis h3 etc...pour aider le lecteur a déterminer ou il se trouve au niveau du contenu la page</t>
+  </si>
+  <si>
+    <t> La balise de titre qui suit h1 est un h3</t>
+  </si>
+  <si>
+    <t> Remplacer les balises h3 par des balises h2 ou supprimer la balise h3 si le contenu n'est pas aussi important que la balise h2 qui se situe plus bas dans la page ou  déplacer les balise h2 / h3 et leur contenu. </t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
+  </si>
+  <si>
+    <t>Langage de la Page ligne 2 lang =default</t>
+  </si>
+  <si>
+    <t> L'attribut lang de la balise html doit préciser un code langue en 2 ou 3 lettres qui sera hérité à chaque éléments de la page </t>
+  </si>
+  <si>
+    <t> La balise html ne précise aucun code langue</t>
+  </si>
+  <si>
+    <t> Le site a un contenu exclusivement en français il doit donc préciser fr dans l'attribut lang</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Content-Language</t>
+  </si>
+  <si>
+    <t>Image ligne 162/171/182/191/69/41 alt=non pertinent</t>
+  </si>
+  <si>
+    <t>L'attribut alt décrit de manière pertinente ce que contient l'image lorsque celle ci ne s'affiche pas(pour les navigateurs de personnes non voyantes ou pour des raisons techniques)</t>
+  </si>
+  <si>
+    <t> Les attributs alt contiennent des descriptions incorrectes des images </t>
+  </si>
+  <si>
+    <t> Mettre des attributs alt propre à chaque image</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img</t>
+  </si>
+  <si>
+    <t>Title ligne 22 &lt;title&gt;.&lt;title&gt;</t>
+  </si>
+  <si>
+    <t>La balise title doit décrire le but de la page de façon claire et concise pour les navigateurs de personnes non voyantes</t>
+  </si>
+  <si>
+    <t> Le point ne décrit pas le but de la page</t>
+  </si>
+  <si>
+    <t> Modifier le titre</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
   </si>
   <si>
     <t>SEO</t>
   </si>
   <si>
+    <t>Font-size ligne 40 font-size : 1px;</t>
+  </si>
+  <si>
+    <t> mot clé cohérent avec le contenu de la page</t>
+  </si>
+  <si>
+    <t>Du texte caché non cohérent avec le contenu de la page pour augmenter le SEO des mot clés</t>
+  </si>
+  <si>
+    <t>Supprimer le bloc DIV et son contenu et mettre des mots clé  dans une seule balise H1 par page et dans les balises H2 (en utilisant des synonymes si besoin) ou une fois dans les balise p (ne pas spammer)</t>
+  </si>
+  <si>
+    <t>A chercher</t>
+  </si>
+  <si>
+    <t>Font-size ligne 42  font-size : 1px;</t>
+  </si>
+  <si>
+    <t>Contrast  ligne 248 color:#F3976C ;</t>
+  </si>
+  <si>
+    <t>Image ligne 127/87/157 alt='spam spam'</t>
+  </si>
+  <si>
+    <t> Image cohérent avec le contenu de la page  </t>
+  </si>
+  <si>
+    <t>Du texte caché dans une image pour rajouter des mots clés dans l'attribut alt et augmenter le SEO des mot clés</t>
+  </si>
+  <si>
+    <t>Supprimer les images et écrire les textes dans des balise p</t>
+  </si>
+  <si>
+    <t> La balise title fait partie des éléments principaux scannés lors de l'indexation de la page il faut y mettre un titre qui décrit la page ou le but de la page</t>
+  </si>
+  <si>
+    <t>Le point ne décrit pas le but de la page</t>
+  </si>
+  <si>
+    <t>trop de lien en page d'accueil</t>
+  </si>
+  <si>
+    <t>Le budget juice du crawler va s'épuiser trop vite, il faut mettre des liens pertinents en header ou en corps de page</t>
+  </si>
+  <si>
+    <t>Pas assez d'autorité</t>
+  </si>
+  <si>
+    <t>Faire une campagne de partenariat avec des bons sites bien référencé et/ou utilisé les réseaux sociaux pour gagner en autorité</t>
+  </si>
+  <si>
+    <t>image non compréssé</t>
+  </si>
+  <si>
+    <t>faire une compression des image a la taille max du DIV englobant l'image </t>
+  </si>
+  <si>
     <t>balise non semantique</t>
   </si>
   <si>
     <t>mettre des balises sémantiques</t>
   </si>
   <si>
-    <t>image non compréssé</t>
-  </si>
-  <si>
-    <t>faire une compression des image a la taille max du DIV englobant l'image </t>
-  </si>
-  <si>
-    <t>trop de lien en page d'accueil</t>
-  </si>
-  <si>
-    <t>Le budget juice du crawler va s'épuiser trop vite, il faut mettre des liens pertinents en header ou en corps de page</t>
-  </si>
-  <si>
-    <t>Pas assez d'autorité</t>
-  </si>
-  <si>
-    <t>Faire une campagne de partenariat avec des bons sites bien référencé et/ou utilisé les réseaux sociaux pour gagner en autorité</t>
+    <t>CSS validation service pas OK 11 erreur</t>
   </si>
 </sst>
 </file>
@@ -77,7 +179,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -125,6 +227,12 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -174,7 +282,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -188,6 +296,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -268,22 +380,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z6"/>
+  <dimension ref="A1:Z26"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="28.5957446808511"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="31.0510638297872"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="97.6382978723404"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="45.936170212766"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="46.3872340425532"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="22.1787234042553"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.1446808510638"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="11.8212765957447"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2893617021277"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8765957446808"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5234042553192"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.6978723404255"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9957446808511"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.8765957446809"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.7106382978723"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.3829787234043"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -330,52 +442,284 @@
       <c r="A2" s="3" t="s">
         <v>6</v>
       </c>
+      <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>7</v>
+      <c r="A4" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>12</v>
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>15</v>
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F15" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="0" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
+    <hyperlink ref="F3" r:id="rId2" display="https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Content-Language"/>
+    <hyperlink ref="F4" r:id="rId3" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img"/>
+    <hyperlink ref="F5" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+    <hyperlink ref="F19" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="landscape" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
   <si>
     <t>Categorie</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Référence</t>
   </si>
   <si>
+    <t>PAge1 (par default)</t>
+  </si>
+  <si>
     <t>ACCESSIBILITÉ</t>
   </si>
   <si>
@@ -103,6 +106,30 @@
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/title</t>
   </si>
   <si>
+    <t>Contrast Lightness Ligne 781,738 background: orange(hsl 69 %) et color: blanc(hsl 100%)</t>
+  </si>
+  <si>
+    <t>Pour adapter la lisibilité pour les personnes mal voyante, la WCAG recommande un ratio de contraste de la luminosité au minimum de 3:1 pour les Textes a grand échelle et de 4,5:1 pour les textes normaux du site</t>
+  </si>
+  <si>
+    <t>On a un ratio de 1 : 1,449 ce qui est insuffisant dans les deux cas</t>
+  </si>
+  <si>
+    <t> On retire le blanc ou le orange pour mettre une couleur sombre avec très peu de luminosité</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast</t>
+  </si>
+  <si>
+    <t>Contrast Lightness Ligne 773,651 background: orange(hsl 69 %) et color: gris(hsl 34%)</t>
+  </si>
+  <si>
+    <t>On a un ratio de 2 : 1 ce qui est insuffisant</t>
+  </si>
+  <si>
+    <t> Le orange est utilisé sur d'autre partie du site , le plus simple serait de mettre une couleur plus sombre pour le gris</t>
+  </si>
+  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -118,12 +145,15 @@
     <t>Supprimer le bloc DIV et son contenu et mettre des mots clé  dans une seule balise H1 par page et dans les balises H2 (en utilisant des synonymes si besoin) ou une fois dans les balise p (ne pas spammer)</t>
   </si>
   <si>
-    <t>A chercher</t>
+    <t>A chercher (blackhat)</t>
   </si>
   <si>
     <t>Font-size ligne 42  font-size : 1px;</t>
   </si>
   <si>
+    <t>A chercher  (blackhat)</t>
+  </si>
+  <si>
     <t>Contrast  ligne 248 color:#F3976C ;</t>
   </si>
   <si>
@@ -145,6 +175,51 @@
     <t>Le point ne décrit pas le but de la page</t>
   </si>
   <si>
+    <t>Meta description  ligne 6 page 1 et page 2  content= ''</t>
+  </si>
+  <si>
+    <t>La meta description contient un résumé concis et pertinent du contenu de la page</t>
+  </si>
+  <si>
+    <t> Il n'y rien d'écrit dans l'attribut content , ce qui ne permet pas d'améliorer le SEO </t>
+  </si>
+  <si>
+    <t> Rajouter un résumé de la page</t>
+  </si>
+  <si>
+    <t>https://support.google.com/webmasters/answer/79812?hl=fr</t>
+  </si>
+  <si>
+    <t>Meta keywords ligne 5 page 1 et page 2 content='spam spam'</t>
+  </si>
+  <si>
+    <t>La meta keywords est obselète et n'est plus utilisé car elle permettait de spamé les mots clés</t>
+  </si>
+  <si>
+    <t> L'attribut content répète excessivement le même mot clé , ce qui est considéré comme du spam , de plus l'utilisation de cette meta ne sera pas pris en compte pour le SEO.</t>
+  </si>
+  <si>
+    <t> Supprimer la balise meta Keywords</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML</t>
+  </si>
+  <si>
+    <t>selecteur p font-size : 11px</t>
+  </si>
+  <si>
+    <t>Google utilise la notion de mobile-friendly pour indiquer si un site est de qualité sur mobile. Si le site a un font-size inférieur a 12px il est considéré comme illisible et donc il est non mobile-friendly</t>
+  </si>
+  <si>
+    <t> Le font-size est a 11px et est considéré comme pas suffisamment lisible pour l'utilisateur</t>
+  </si>
+  <si>
+    <t> Mettre le font-size a  12px</t>
+  </si>
+  <si>
+    <t>https://web.dev/font-size/</t>
+  </si>
+  <si>
     <t>trop de lien en page d'accueil</t>
   </si>
   <si>
@@ -170,6 +245,12 @@
   </si>
   <si>
     <t>CSS validation service pas OK 11 erreur</t>
+  </si>
+  <si>
+    <t>rajouter un snippet additionnel pour rajouter les coordonnées physiques de l'agence</t>
+  </si>
+  <si>
+    <t>Miser sur la localisation pour la stratégie SEO</t>
   </si>
 </sst>
 </file>
@@ -179,7 +260,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -220,6 +301,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
@@ -282,7 +370,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -295,11 +383,23 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,22 +480,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z26"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F20" activeCellId="0" sqref="F20"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2893617021277"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="32.8765957446808"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="41.5234042553192"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="34.6978723404255"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="29.9957446808511"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="71.8765957446809"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="11.7106382978723"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="12.3829787234043"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.936170212766"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4085106382979"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.4085106382979"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7021276595745"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7489361702128"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="76.2212765957447"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="12.2723404255319"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.0595744680851"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -438,287 +538,420 @@
       <c r="Y1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
+    <row r="2" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1"/>
+      <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="C3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="0" t="s">
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="C4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="D4" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="0" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="C5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="D5" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="F5" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="0" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="C6" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="D6" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="E6" s="0" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="s">
-        <v>6</v>
+      <c r="F6" s="0" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
-        <v>6</v>
+      <c r="A8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="s">
-        <v>6</v>
+      <c r="A9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
+      <c r="A10" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="s">
-        <v>6</v>
+      <c r="A11" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D15" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F15" s="0" t="s">
-        <v>32</v>
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="4" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="E16" s="0" t="s">
+        <v>40</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>31</v>
+        <v>39</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>40</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>47</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>26</v>
+        <v>48</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E20" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="F20" s="0" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>27</v>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="6" t="s">
+        <v>36</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>52</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="0" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>44</v>
+        <v>57</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="0" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="0" t="s">
-        <v>27</v>
+      <c r="A23" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="D23" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="F23" s="0" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B35" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B36" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B40" s="0" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
-    <hyperlink ref="F3" r:id="rId2" display="https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Content-Language"/>
-    <hyperlink ref="F4" r:id="rId3" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img"/>
-    <hyperlink ref="F5" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
-    <hyperlink ref="F19" r:id="rId5" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+    <hyperlink ref="F3" r:id="rId1" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
+    <hyperlink ref="F4" r:id="rId2" display="https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Content-Language"/>
+    <hyperlink ref="F5" r:id="rId3" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img"/>
+    <hyperlink ref="F6" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+    <hyperlink ref="F8" r:id="rId5" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
+    <hyperlink ref="F9" r:id="rId6" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
+    <hyperlink ref="F20" r:id="rId7" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+    <hyperlink ref="F21" r:id="rId8" display="https://support.google.com/webmasters/answer/79812?hl=fr"/>
+    <hyperlink ref="F22" r:id="rId9" display="https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML"/>
+    <hyperlink ref="F23" r:id="rId10" display="https://web.dev/font-size/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
   <si>
     <t>Categorie</t>
   </si>
@@ -130,6 +130,18 @@
     <t> Le orange est utilisé sur d'autre partie du site , le plus simple serait de mettre une couleur plus sombre pour le gris</t>
   </si>
   <si>
+    <t>Texte de lien identique Ligne  230,235,240,245 &lt;span&gt;&lt;/span&gt; Les Texte de lien doivent être discernables , uniques et sélectionnables pour amélioré l'expérience utilisateur lors de la navigation</t>
+  </si>
+  <si>
+    <t>On a un font awesome qui n'est pas considéré comme une image, ni comme un texte mais il est placé dans une balise span qui est une balise inline. Même si il n'y pas de texte a l'intérieur du html, le DOM considère qu'il il y un nœud texte vide a l'intérieur </t>
+  </si>
+  <si>
+    <t> Soit mettre une balise Div avec un attribut class et placer le font awesome à ce moment la, comme modificateur de la class, ou sinon mettre un texte qui va illustrer les icones font awesome</t>
+  </si>
+  <si>
+    <t>https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -218,6 +230,57 @@
   </si>
   <si>
     <t>https://web.dev/font-size/</t>
+  </si>
+  <si>
+    <t>SEO technique</t>
+  </si>
+  <si>
+    <t>Images non enregistrées au bon format (toutes les images du site)</t>
+  </si>
+  <si>
+    <t>Les formats d'image comme Jpeg 200/XR et Webp propose une plus petite taille de fichier et les téléchargements sont plus rapides pour le crawler google</t>
+  </si>
+  <si>
+    <t> Les images ont une taille beaucoup trop importante car elles ne sont pas suffisamment compressées</t>
+  </si>
+  <si>
+    <t>Obtenir un logiciel pour enregistrer les images au format minimum</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=unknown</t>
+  </si>
+  <si>
+    <t>Image non compressé de manières efficaces</t>
+  </si>
+  <si>
+    <t>Les images compressé se chargent plus rapidement et consomment moins de données mobiles</t>
+  </si>
+  <si>
+    <t> Les images ont une taille qui n'est pas suffisamment réduite</t>
+  </si>
+  <si>
+    <t>Obtenir un logiciel pour compresser les images à leurs tailles minimum</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=unknown</t>
+  </si>
+  <si>
+    <t>Seo technique</t>
+  </si>
+  <si>
+    <t>Code final css non compressé et commentaires dans le code non supprimés</t>
+  </si>
+  <si>
+    <t>Plus le code Css est court plus les pages se chargent rapidement et le SEO est meilleur</t>
+  </si>
+  <si>
+    <t> Le code n'est pas sous sa taille minimum, le SEO peut donc être encore amélioré</t>
+  </si>
+  <si>
+    <t>Après avoir supprimé tout les commentaires non important, Obtenir un logiciel pour compiler le code CSS en syntaxe compressé</t>
+  </si>
+  <si>
+    <t>https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=unknown</t>
   </si>
   <si>
     <t>trop de lien en page d'accueil</t>
@@ -482,13 +545,13 @@
   </sheetPr>
   <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.936170212766"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1744680851064"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4085106382979"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.4085106382979"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7021276595745"/>
@@ -700,6 +763,18 @@
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="B10" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
@@ -723,96 +798,96 @@
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B17" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C17" s="0" t="s">
-        <v>38</v>
-      </c>
       <c r="D17" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>40</v>
-      </c>
       <c r="F18" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D19" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>23</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>26</v>
@@ -823,121 +898,181 @@
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="7" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>65</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="B26" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E26" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" s="0" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>67</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>72</v>
+        <v>93</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="0" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>75</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="0" t="s">
-        <v>76</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>
@@ -948,10 +1083,14 @@
     <hyperlink ref="F6" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
     <hyperlink ref="F8" r:id="rId5" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
     <hyperlink ref="F9" r:id="rId6" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
-    <hyperlink ref="F20" r:id="rId7" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
-    <hyperlink ref="F21" r:id="rId8" display="https://support.google.com/webmasters/answer/79812?hl=fr"/>
-    <hyperlink ref="F22" r:id="rId9" display="https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML"/>
-    <hyperlink ref="F23" r:id="rId10" display="https://web.dev/font-size/"/>
+    <hyperlink ref="F10" r:id="rId7" display="https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools"/>
+    <hyperlink ref="F20" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+    <hyperlink ref="F21" r:id="rId9" display="https://support.google.com/webmasters/answer/79812?hl=fr"/>
+    <hyperlink ref="F22" r:id="rId10" display="https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML"/>
+    <hyperlink ref="F23" r:id="rId11" display="https://web.dev/font-size/"/>
+    <hyperlink ref="F24" r:id="rId12" display="https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F25" r:id="rId13" display="https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F26" r:id="rId14" display="https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=unknown"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
   <si>
     <t>Categorie</t>
   </si>
@@ -40,6 +40,9 @@
     <t>Référence</t>
   </si>
   <si>
+    <t>PAge1 (par défaut si non précisé)</t>
+  </si>
+  <si>
     <t>PAge1 (par default)</t>
   </si>
   <si>
@@ -61,7 +64,7 @@
     <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements</t>
   </si>
   <si>
-    <t>Langage de la Page ligne 2 lang =default</t>
+    <t>Langage de la Page html ligne 2 lang =default</t>
   </si>
   <si>
     <t> L'attribut lang de la balise html doit préciser un code langue en 2 ou 3 lettres qui sera hérité à chaque éléments de la page </t>
@@ -145,6 +148,21 @@
     <t>SEO</t>
   </si>
   <si>
+    <t>Aucune utilisation des balises semantiques page 1 et  page 2</t>
+  </si>
+  <si>
+    <t>Les balises sémantiques aident le référencement naturel car elles facilitent la compréhension du contenu des pages web</t>
+  </si>
+  <si>
+    <t>Les balises sémantiques ne sont pas utilisées</t>
+  </si>
+  <si>
+    <t>Remplacer les balises Div par les balises sémantiques lorsque c'est nécessaire.</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Element</t>
+  </si>
+  <si>
     <t>Font-size ligne 40 font-size : 1px;</t>
   </si>
   <si>
@@ -157,15 +175,12 @@
     <t>Supprimer le bloc DIV et son contenu et mettre des mots clé  dans une seule balise H1 par page et dans les balises H2 (en utilisant des synonymes si besoin) ou une fois dans les balise p (ne pas spammer)</t>
   </si>
   <si>
-    <t>A chercher (blackhat)</t>
+    <t>https://fr.wikipedia.org/wiki/Cloaking</t>
   </si>
   <si>
     <t>Font-size ligne 42  font-size : 1px;</t>
   </si>
   <si>
-    <t>A chercher  (blackhat)</t>
-  </si>
-  <si>
     <t>Contrast  ligne 248 color:#F3976C ;</t>
   </si>
   <si>
@@ -181,6 +196,18 @@
     <t>Supprimer les images et écrire les textes dans des balise p</t>
   </si>
   <si>
+    <t>Trop de lien en page d'accueil</t>
+  </si>
+  <si>
+    <t>Pour l'utilisation de lien il y a une notion de link juice qui utilisé , c'est une quantité limité d'autorité qui est accordé sur tout le contenu du site.Il faut mettre peu de lien et les mettre en début ou en corps de texte pour optimiser la valeur accordé au lien.</t>
+  </si>
+  <si>
+    <t>Il y a 22 Liens présents sur la page et ils sont tous dans le footer. Par rapport au contenu global du site qui est relativement faible en quantité de mot,Google pourrait considérer que le site spam des liens pour augmenter son référencement et qu'il s'agit d'une pratique de blackhat . Deux possibilités : soit  le référencement naturelle n'accordera aucune autorité a ces liens , soit google pourrait pénalisé le référencement du site entier.</t>
+  </si>
+  <si>
+    <t>Rajouter au lien un attribut rel=nofollow qui indique au robot google de ne pas suivre le lien pour son référencement,ou ,dans une démarche qui valoriserait également l'expérience des visiteurs(et la cohérence de la page) on pourrait supprimer tout les liens et en mettre que 3 ou 4 (ceux des partenaires ) et les mettre en accompagnement des principaux contenus textuels de la page (début ou corps du texte).</t>
+  </si>
+  <si>
     <t> La balise title fait partie des éléments principaux scannés lors de l'indexation de la page il faut y mettre un titre qui décrit la page ou le but de la page</t>
   </si>
   <si>
@@ -205,7 +232,7 @@
     <t>Meta keywords ligne 5 page 1 et page 2 content='spam spam'</t>
   </si>
   <si>
-    <t>La meta keywords est obselète et n'est plus utilisé car elle permettait de spamé les mots clés</t>
+    <t>La meta keywords est obsolète et n'est plus utilisé car elle permettait de spamé les mots clés</t>
   </si>
   <si>
     <t> L'attribut content répète excessivement le même mot clé , ce qui est considéré comme du spam , de plus l'utilisation de cette meta ne sera pas pris en compte pour le SEO.</t>
@@ -217,7 +244,7 @@
     <t>https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML</t>
   </si>
   <si>
-    <t>selecteur p font-size : 11px</t>
+    <t>sélecteur p font-size : 11px</t>
   </si>
   <si>
     <t>Google utilise la notion de mobile-friendly pour indiquer si un site est de qualité sur mobile. Si le site a un font-size inférieur a 12px il est considéré comme illisible et donc il est non mobile-friendly</t>
@@ -232,6 +259,15 @@
     <t>https://web.dev/font-size/</t>
   </si>
   <si>
+    <t>SEO On-page</t>
+  </si>
+  <si>
+    <t>Elément textuel de la liste du header ligne 55(html) &lt;a&gt;page2&lt;/a&gt;</t>
+  </si>
+  <si>
+    <t>Mettre des Mots-clés afin d'amélioré le SEO on page </t>
+  </si>
+  <si>
     <t>SEO technique</t>
   </si>
   <si>
@@ -265,10 +301,7 @@
     <t>https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=unknown</t>
   </si>
   <si>
-    <t>Seo technique</t>
-  </si>
-  <si>
-    <t>Code final css non compressé et commentaires dans le code non supprimés</t>
+    <t>Code final css non compressé</t>
   </si>
   <si>
     <t>Plus le code Css est court plus les pages se chargent rapidement et le SEO est meilleur</t>
@@ -277,43 +310,49 @@
     <t> Le code n'est pas sous sa taille minimum, le SEO peut donc être encore amélioré</t>
   </si>
   <si>
-    <t>Après avoir supprimé tout les commentaires non important, Obtenir un logiciel pour compiler le code CSS en syntaxe compressé</t>
+    <t>Obtenir un logiciel pour compiler le code CSS en syntaxe compressé</t>
   </si>
   <si>
     <t>https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=unknown</t>
   </si>
   <si>
-    <t>trop de lien en page d'accueil</t>
-  </si>
-  <si>
-    <t>Le budget juice du crawler va s'épuiser trop vite, il faut mettre des liens pertinents en header ou en corps de page</t>
-  </si>
-  <si>
-    <t>Pas assez d'autorité</t>
-  </si>
-  <si>
-    <t>Faire une campagne de partenariat avec des bons sites bien référencé et/ou utilisé les réseaux sociaux pour gagner en autorité</t>
-  </si>
-  <si>
-    <t>image non compréssé</t>
-  </si>
-  <si>
-    <t>faire une compression des image a la taille max du DIV englobant l'image </t>
-  </si>
-  <si>
-    <t>balise non semantique</t>
-  </si>
-  <si>
-    <t>mettre des balises sémantiques</t>
+    <t>SEO technique </t>
+  </si>
+  <si>
+    <t>Ligne inutilisé dans le code source de la page html + commentaires non nécessaires</t>
+  </si>
+  <si>
+    <t>Supprimer toutes les portions vides ou inutiles du code afin qu'il soit le plus court possible</t>
+  </si>
+  <si>
+    <t>Exemple Ligne 31 commentaire inutile car répétition de ce qui est dit dans l'attribut class ligne 32/ Autre exemple Ligne 33 ligne entièrement vide</t>
+  </si>
+  <si>
+    <t>Supprimer les lignes vides et les commentaires inutiles, compresser au maximum le code Html en respectant l'indentation</t>
+  </si>
+  <si>
+    <t>Entité Html utilisé sur un encodage des caractères en UTF-8</t>
+  </si>
+  <si>
+    <t>L'utilisation de UTF-8 permet de prendre en charge énormément de caractère spéciaux, il n'est plus nécessaire d'utiliser des entités html</t>
+  </si>
+  <si>
+    <t>Ligne 99 une entité html &amp;rsquo; représentant un guillement est utilisé, ligne 107 idem(&amp;nbsp) pour un espace </t>
+  </si>
+  <si>
+    <t>Supprimer les entités et mettre simplement le caractère spécial car il sera naturellement supporter sous UTF-8</t>
+  </si>
+  <si>
+    <t>https://www.alsacreations.com/astuce/lire/34-charset-iso-8859-1-iso-8859-15-utf-8-lequel-choisir.html</t>
   </si>
   <si>
     <t>CSS validation service pas OK 11 erreur</t>
   </si>
   <si>
-    <t>rajouter un snippet additionnel pour rajouter les coordonnées physiques de l'agence</t>
-  </si>
-  <si>
-    <t>Miser sur la localisation pour la stratégie SEO</t>
+    <t>Prévoir de rajouter des donnés structurés</t>
+  </si>
+  <si>
+    <t>prévoir une mise en cache de certain élément lourd</t>
   </si>
 </sst>
 </file>
@@ -323,7 +362,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -366,23 +405,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -433,7 +459,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -446,11 +472,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -458,11 +480,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -543,22 +561,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z40"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.1744680851064"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="51.4085106382979"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="55.4085106382979"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="36.7021276595745"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="31.7489361702128"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="76.2212765957447"/>
-    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="12.2723404255319"/>
-    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="13.0595744680851"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="14.7489361702128"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="57.7574468085106"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="62.2595744680851"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="41.2085106382979"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="35.6893617021277"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="85.7914893617021"/>
+    <col collapsed="false" hidden="false" max="26" min="7" style="0" width="13.736170212766"/>
+    <col collapsed="false" hidden="false" max="1025" min="27" style="0" width="9.00851063829787"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -603,20 +621,20 @@
     </row>
     <row r="2" customFormat="false" ht="45.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="1"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>6</v>
+      <c r="F2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
@@ -640,439 +658,477 @@
       <c r="Z2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="4" t="s">
-        <v>7</v>
+      <c r="A3" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="B4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4" t="s">
-        <v>7</v>
+      <c r="A5" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>23</v>
+      <c r="A6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="6" t="s">
+      <c r="D9" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="4" t="s">
-        <v>7</v>
+      <c r="A10" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="3"/>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4" t="s">
-        <v>7</v>
-      </c>
+      <c r="A14" s="3"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="E17" s="0" t="s">
+        <v>50</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B18" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="D18" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B19" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="0" t="s">
+      <c r="E19" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D19" s="0" t="s">
+      <c r="F19" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>56</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="0" t="s">
-        <v>27</v>
+        <v>57</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="6" t="s">
-        <v>40</v>
+      <c r="A21" s="0" t="s">
+        <v>41</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>60</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="0" t="s">
-        <v>59</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="0" t="s">
         <v>62</v>
       </c>
+      <c r="D22" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E22" s="0" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F22" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="0" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="0" t="s">
+      <c r="C23" s="0" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="0" t="s">
+      <c r="D23" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D23" s="0" t="s">
+      <c r="E23" s="0" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="0" t="s">
+      <c r="F23" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="F23" s="0" t="s">
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24" s="0" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
+      <c r="C24" s="0" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="0" t="s">
+      <c r="D24" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="0" t="s">
+      <c r="E24" s="0" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="0" t="s">
+      <c r="F24" s="0" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="0" t="s">
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="0" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="0" t="s">
+      <c r="C25" s="0" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B25" s="0" t="s">
+      <c r="D25" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="C25" s="0" t="s">
+      <c r="E25" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D25" s="0" t="s">
+      <c r="F25" s="0" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="6" t="s">
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="B26" s="0" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0" t="s">
+      <c r="C26" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="B26" s="0" t="s">
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="C26" s="0" t="s">
+      <c r="B27" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="D26" s="0" t="s">
+      <c r="C27" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="E26" s="0" t="s">
+      <c r="D27" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="F26" s="0" t="s">
+      <c r="E27" s="0" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B33" s="0" t="s">
+      <c r="F27" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="0" t="s">
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="0" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B34" s="0" t="s">
+      <c r="C28" s="0" t="s">
         <v>89</v>
       </c>
-      <c r="C34" s="0" t="s">
+      <c r="D28" s="0" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B35" s="0" t="s">
+      <c r="E28" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="C35" s="0" t="s">
+      <c r="F28" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="B36" s="0" t="s">
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="C36" s="0" t="s">
+      <c r="C29" s="0" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="0" t="s">
+      <c r="D29" s="0" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="0" t="s">
+      <c r="E29" s="0" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B40" s="0" t="s">
+      <c r="F29" s="0" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="0" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E31" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="0" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B41" s="0" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B43" s="0" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B44" s="0" t="s">
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -1084,13 +1140,19 @@
     <hyperlink ref="F8" r:id="rId5" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
     <hyperlink ref="F9" r:id="rId6" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
     <hyperlink ref="F10" r:id="rId7" display="https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools"/>
-    <hyperlink ref="F20" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
-    <hyperlink ref="F21" r:id="rId9" display="https://support.google.com/webmasters/answer/79812?hl=fr"/>
-    <hyperlink ref="F22" r:id="rId10" display="https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML"/>
-    <hyperlink ref="F23" r:id="rId11" display="https://web.dev/font-size/"/>
-    <hyperlink ref="F24" r:id="rId12" display="https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
-    <hyperlink ref="F25" r:id="rId13" display="https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
-    <hyperlink ref="F26" r:id="rId14" display="https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F16" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element"/>
+    <hyperlink ref="F17" r:id="rId9" display="https://fr.wikipedia.org/wiki/Cloaking"/>
+    <hyperlink ref="F18" r:id="rId10" display="https://fr.wikipedia.org/wiki/Cloaking"/>
+    <hyperlink ref="F19" r:id="rId11" display="https://fr.wikipedia.org/wiki/Cloaking"/>
+    <hyperlink ref="F20" r:id="rId12" display="https://fr.wikipedia.org/wiki/Cloaking"/>
+    <hyperlink ref="F22" r:id="rId13" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+    <hyperlink ref="F23" r:id="rId14" display="https://support.google.com/webmasters/answer/79812?hl=fr"/>
+    <hyperlink ref="F24" r:id="rId15" display="https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML"/>
+    <hyperlink ref="F25" r:id="rId16" display="https://web.dev/font-size/"/>
+    <hyperlink ref="F27" r:id="rId17" display="https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F28" r:id="rId18" display="https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F29" r:id="rId19" display="https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F31" r:id="rId20" display="https://www.alsacreations.com/astuce/lire/34-charset-iso-8859-1-iso-8859-15-utf-8-lequel-choisir.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
   <si>
     <t>Categorie</t>
   </si>
@@ -52,7 +52,7 @@
     <t> Arborescence des balises H (multi ligne)</t>
   </si>
   <si>
-    <t> Les balises de titre sont imbriqué ou placé selon des règles strictes h1 en premier puis h2 puis h3 etc...pour aider le lecteur a déterminer ou il se trouve au niveau du contenu la page</t>
+    <t>Les balises de titre sont imbriqué ou placé selon des règles strictes h1 en premier puis h2 puis h3 etc...pour aider le lecteur a déterminer ou il se trouve au niveau du contenu la page</t>
   </si>
   <si>
     <t> La balise de titre qui suit h1 est un h3</t>
@@ -67,7 +67,7 @@
     <t>Langage de la Page html ligne 2 lang =default</t>
   </si>
   <si>
-    <t> L'attribut lang de la balise html doit préciser un code langue en 2 ou 3 lettres qui sera hérité à chaque éléments de la page </t>
+    <t>L'attribut lang de la balise html doit préciser un code langue en 2 ou 3 lettres qui sera hérité à chaque éléments de la page </t>
   </si>
   <si>
     <t> La balise html ne précise aucun code langue</t>
@@ -145,6 +145,9 @@
     <t>https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools</t>
   </si>
   <si>
+    <t>         &amp;</t>
+  </si>
+  <si>
     <t>SEO</t>
   </si>
   <si>
@@ -259,13 +262,37 @@
     <t>https://web.dev/font-size/</t>
   </si>
   <si>
+    <t>Chevauchement d'élément interactif sur tout les liens du footer</t>
+  </si>
+  <si>
+    <t>Les éléments interactifs doivent avoir une largeur et hauteur suffisante ( 48x48) et avoir également suffisamment d'espace autour d'eux (8px) pour permettre une bonne navigation en mode portable</t>
+  </si>
+  <si>
+    <t>En mode portable les éléments ont que 16 pixel de hauteur </t>
+  </si>
+  <si>
+    <t>Rajouter une propriété padding pour la hauteur pour la largeur/hauteur et une propriété margin pour le chevauchement</t>
+  </si>
+  <si>
+    <t>https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
     <t>SEO On-page</t>
   </si>
   <si>
     <t>Elément textuel de la liste du header ligne 55(html) &lt;a&gt;page2&lt;/a&gt;</t>
   </si>
   <si>
-    <t>Mettre des Mots-clés afin d'amélioré le SEO on page </t>
+    <t>Les éléments textuels doivent correspondre au contenu de la page afin d'amélioré la cohérence de la page</t>
+  </si>
+  <si>
+    <t>La deuxième page du site est indiqué avec la mention « page 2 » ce qui n'est pas cohérent pour le visiteur et également pour le référencement naturel</t>
+  </si>
+  <si>
+    <t>Remplacement le champ texte « page 2 » par « nos coordonnees ou notre adresse »</t>
+  </si>
+  <si>
+    <t>https://support.google.com/webmasters/answer/7451184?hl=fr</t>
   </si>
   <si>
     <t>SEO technique</t>
@@ -362,7 +389,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -405,13 +432,40 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="13"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -421,16 +475,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FF333399"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB2B2B2"/>
+        <bgColor rgb="FFCC9966"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC9966"/>
+        <bgColor rgb="FFB2B2B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9933FF"/>
+        <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="dashed"/>
+      <right style="dashed"/>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -459,7 +545,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -472,15 +558,39 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,7 +619,7 @@
       <rgbColor rgb="FF808000"/>
       <rgbColor rgb="FF800080"/>
       <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
+      <rgbColor rgb="FFB2B2B2"/>
       <rgbColor rgb="FF808080"/>
       <rgbColor rgb="FF9999FF"/>
       <rgbColor rgb="FF7030A0"/>
@@ -542,13 +652,13 @@
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFFF6600"/>
       <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
+      <rgbColor rgb="FFCC9966"/>
       <rgbColor rgb="FF003366"/>
       <rgbColor rgb="FF339966"/>
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF9933FF"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
@@ -561,10 +671,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B44" activeCellId="0" sqref="B44"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -657,502 +767,534 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="3" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="C3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="F3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="0" t="s">
+      <c r="D4" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="E4" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="F4" s="4" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="s">
+    <row r="5" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="0" t="s">
+      <c r="D5" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="F5" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="0" t="s">
+      <c r="D6" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="0" t="s">
+      <c r="F6" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="s">
+    <row r="7" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="0" t="s">
+      <c r="C7" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="D7" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="0" t="s">
+      <c r="E7" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="0" t="s">
+      <c r="F7" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3"/>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
+      <c r="A10" s="7"/>
+    </row>
+    <row r="11" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="0" t="s">
+    </row>
+    <row r="13" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="0" t="s">
+      <c r="B13" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="D16" s="0" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="E16" s="0" t="s">
+      <c r="D13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F16" s="0" t="s">
+      <c r="E13" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B17" s="0" t="s">
+      <c r="F13" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="0" t="s">
+    </row>
+    <row r="14" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D17" s="0" t="s">
+      <c r="C14" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="D14" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F17" s="0" t="s">
+      <c r="E14" s="4" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" s="0" t="s">
+      <c r="F14" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="C18" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="0" t="s">
+    </row>
+    <row r="15" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>49</v>
       </c>
+      <c r="D15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="16" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>61</v>
+      </c>
       <c r="E18" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="C19" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="D19" s="0" t="s">
-        <v>49</v>
+        <v>62</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>64</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="F19" s="0" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B20" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="C20" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="0" t="s">
-        <v>57</v>
+        <v>27</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>68</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="C21" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F21" s="4"/>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B22" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22" s="0" t="s">
-        <v>62</v>
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>76</v>
       </c>
       <c r="D22" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="0" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B23" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="C23" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>81</v>
       </c>
       <c r="D23" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="0" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="C24" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="D24" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F24" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B25" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="D25" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F25" s="0" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B26" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="C26" s="0" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="0" t="s">
+      <c r="E23" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C27" s="0" t="s">
+      <c r="F23" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="D27" s="0" t="s">
+    </row>
+    <row r="24" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E27" s="0" t="s">
+      <c r="B24" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="F27" s="0" t="s">
+      <c r="C24" s="4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="0" t="s">
+      <c r="D24" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="0" t="s">
+      <c r="E24" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="D28" s="0" t="s">
+      <c r="F24" s="4" t="s">
         <v>90</v>
       </c>
+    </row>
+    <row r="25" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="26" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="27" s="5" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="28" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>110</v>
+      </c>
       <c r="E28" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" s="5" customFormat="true" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B29" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="0" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="C30" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="D30" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E30" s="0" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="D31" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F31" s="0" t="s">
-        <v>107</v>
-      </c>
-    </row>
+      <c r="B29" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B39" s="0" t="s">
+        <v>117</v>
+      </c>
+    </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B43" s="0" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B44" s="0" t="s">
-        <v>110</v>
-      </c>
-    </row>
+        <v>118</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B42" s="0" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F3" r:id="rId1" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Heading_Elements"/>
     <hyperlink ref="F4" r:id="rId2" display="https://developer.mozilla.org/fr/docs/Web/HTTP/Headers/Content-Language"/>
     <hyperlink ref="F5" r:id="rId3" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/Img"/>
     <hyperlink ref="F6" r:id="rId4" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
-    <hyperlink ref="F8" r:id="rId5" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
-    <hyperlink ref="F9" r:id="rId6" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
-    <hyperlink ref="F10" r:id="rId7" display="https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools"/>
-    <hyperlink ref="F16" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element"/>
-    <hyperlink ref="F17" r:id="rId9" display="https://fr.wikipedia.org/wiki/Cloaking"/>
-    <hyperlink ref="F18" r:id="rId10" display="https://fr.wikipedia.org/wiki/Cloaking"/>
-    <hyperlink ref="F19" r:id="rId11" display="https://fr.wikipedia.org/wiki/Cloaking"/>
-    <hyperlink ref="F20" r:id="rId12" display="https://fr.wikipedia.org/wiki/Cloaking"/>
-    <hyperlink ref="F22" r:id="rId13" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
-    <hyperlink ref="F23" r:id="rId14" display="https://support.google.com/webmasters/answer/79812?hl=fr"/>
-    <hyperlink ref="F24" r:id="rId15" display="https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML"/>
-    <hyperlink ref="F25" r:id="rId16" display="https://web.dev/font-size/"/>
-    <hyperlink ref="F27" r:id="rId17" display="https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
-    <hyperlink ref="F28" r:id="rId18" display="https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
-    <hyperlink ref="F29" r:id="rId19" display="https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=unknown"/>
-    <hyperlink ref="F31" r:id="rId20" display="https://www.alsacreations.com/astuce/lire/34-charset-iso-8859-1-iso-8859-15-utf-8-lequel-choisir.html"/>
+    <hyperlink ref="F7" r:id="rId5" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
+    <hyperlink ref="F8" r:id="rId6" display="https://developer.mozilla.org/en-US/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast"/>
+    <hyperlink ref="F9" r:id="rId7" display="https://web.dev/link-name/?utm_source=lighthouse&amp;utm_medium=devtools"/>
+    <hyperlink ref="F13" r:id="rId8" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element"/>
+    <hyperlink ref="F14" r:id="rId9" display="https://fr.wikipedia.org/wiki/Cloaking"/>
+    <hyperlink ref="F15" r:id="rId10" display="https://fr.wikipedia.org/wiki/Cloaking"/>
+    <hyperlink ref="F16" r:id="rId11" display="https://fr.wikipedia.org/wiki/Cloaking"/>
+    <hyperlink ref="F17" r:id="rId12" display="https://fr.wikipedia.org/wiki/Cloaking"/>
+    <hyperlink ref="F19" r:id="rId13" display="https://developer.mozilla.org/fr/docs/Web/HTML/Element/title"/>
+    <hyperlink ref="F20" r:id="rId14" display="https://support.google.com/webmasters/answer/79812?hl=fr"/>
+    <hyperlink ref="F21" r:id="rId15" display="https://developer.mozilla.org/fr/docs/Apprendre/HTML/Introduction_%C3%A0_HTML/The_head_metadata_in_HTML"/>
+    <hyperlink ref="F22" r:id="rId16" display="https://web.dev/font-size/"/>
+    <hyperlink ref="F23" r:id="rId17" display="https://web.dev/tap-targets/?utm_source=lighthouse&amp;utm_medium=devtools"/>
+    <hyperlink ref="F24" r:id="rId18" display="https://support.google.com/webmasters/answer/7451184?hl=fr"/>
+    <hyperlink ref="F25" r:id="rId19" display="https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F26" r:id="rId20" display="https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F27" r:id="rId21" display="https://web.dev/unused-css-rules/?utm_source=lighthouse&amp;utm_medium=unknown"/>
+    <hyperlink ref="F29" r:id="rId22" display="https://www.alsacreations.com/astuce/lire/34-charset-iso-8859-1-iso-8859-15-utf-8-lequel-choisir.html"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
   <si>
-    <t>Categorie</t>
+    <t>Catégorie</t>
   </si>
   <si>
     <t>Problème analysé</t>
@@ -133,7 +133,7 @@
     <t> Le orange est utilisé sur d'autre partie du site , le plus simple serait de mettre une couleur plus sombre pour le gris</t>
   </si>
   <si>
-    <t>Texte de lien identique Ligne  230,235,240,245 &lt;span&gt;&lt;/span&gt; Les Texte de lien doivent être discernables , uniques et sélectionnables pour amélioré l'expérience utilisateur lors de la navigation</t>
+    <t>Texte de lien identique Ligne  235,240,245 &lt;span&gt;&lt;/span&gt; Les Texte de lien doivent être discernables , uniques et sélectionnables pour amélioré l'expérience utilisateur lors de la navigation</t>
   </si>
   <si>
     <t>On a un font awesome qui n'est pas considéré comme une image, ni comme un texte mais il est placé dans une balise span qui est une balise inline. Même si il n'y pas de texte a l'intérieur du html, le DOM considère qu'il il y un nœud texte vide a l'intérieur </t>
@@ -674,7 +674,7 @@
   <dimension ref="A1:Z65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B32" activeCellId="0" sqref="B32"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
+++ b/Modèle+analyse+SEO+et+accessibilité+(1)(1).xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="127">
   <si>
     <t>Catégorie</t>
   </si>
@@ -371,6 +371,59 @@
   </si>
   <si>
     <t>https://www.alsacreations.com/astuce/lire/34-charset-iso-8859-1-iso-8859-15-utf-8-lequel-choisir.html</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="14"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>                                            </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="12"/>
+        <color rgb="FFFFFFFF"/>
+        <rFont val="Cambria"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t>   PAge 2</t>
+    </r>
+  </si>
+  <si>
+    <t>                                                      Page 2</t>
+  </si>
+  <si>
+    <t>                                     Page 2</t>
+  </si>
+  <si>
+    <t>                          Page 2</t>
+  </si>
+  <si>
+    <t>Contenu de la page hors page affiché</t>
+  </si>
+  <si>
+    <t>Tout les contenus du site doit apparaître correctement</t>
+  </si>
+  <si>
+    <t>retrait de la propriété position absolute</t>
   </si>
   <si>
     <t>CSS validation service pas OK 11 erreur</t>
@@ -389,7 +442,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -464,6 +517,27 @@
       <family val="1"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -475,7 +549,7 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF333399"/>
+        <bgColor rgb="FF663399"/>
       </patternFill>
     </fill>
     <fill>
@@ -492,7 +566,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF9933FF"/>
+        <fgColor rgb="FF663399"/>
         <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
@@ -545,7 +619,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -591,6 +665,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -658,8 +744,8 @@
       <rgbColor rgb="FF003300"/>
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF9933FF"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF663399"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -673,8 +759,8 @@
   </sheetPr>
   <dimension ref="A1:Z65536"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1249,23 +1335,52 @@
         <v>116</v>
       </c>
     </row>
+    <row r="32" customFormat="false" ht="33.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="E33" s="0" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
